--- a/data/match_20.xlsx
+++ b/data/match_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA31D8FD-D5EF-48AF-8E81-E798CC61BC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C05B0D2-8D40-4E6A-B0E9-9C051F1B6F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Криеванс Владислав</t>
+  </si>
+  <si>
+    <t>Шевчук Антон</t>
+  </si>
+  <si>
+    <t>Муратов Игорь</t>
   </si>
 </sst>
 </file>
@@ -555,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,85 +1422,20 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>22</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1503,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
@@ -1521,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1539,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1559,13 +1500,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1574,16 +1515,16 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -1592,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
@@ -1604,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1630,13 +1571,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1645,10 +1586,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
@@ -1657,51 +1598,127 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>24</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>22</v>
-      </c>
       <c r="Q16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
         <v>30</v>
       </c>
-      <c r="W16">
-        <v>0</v>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W16">
-    <sortCondition ref="B1:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W17">
+    <sortCondition ref="B1:B17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
